--- a/API_WEB/Uploads/ScrapOk.xlsx
+++ b/API_WEB/Uploads/ScrapOk.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3D13A1-9084-4E5C-B442-692C763CE1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F8FE87-F62F-438E-BCFA-381594337A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5097" uniqueCount="5095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5382" uniqueCount="5380">
   <si>
     <t>42865001830739</t>
   </si>
@@ -15305,6 +15305,861 @@
   </si>
   <si>
     <t>42061004172788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427U1ALD66CDT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427U1ALD75BLI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427U1ALD55CCJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427U1ALD66BTH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124T0304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124C3201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712460311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38DWU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38AGC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124N2406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29EAG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28BTD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37DYB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28ATW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28EAH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712443212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CFS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2350U1ALD30ATA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2417U1ALD02BXV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712463308 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28BAA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CPP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28AZY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28BMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124O4510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712432909 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124V2407 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423U1ALD91I29 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124U4301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712414415 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD29BAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39BLO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38BYA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430U1ALD02ABO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2430U1ALD02DFJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124F7109 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124G4413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD99AQG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V712462907 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124H3001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124A0602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD99AZZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437C400603507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD06AMX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD05AND </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD04ACA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD05ALN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124H5107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124A2801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD99DCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V7124C6712 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124C4216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V7124I1503 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD07CKV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124C5504 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V712469506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124C6814 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124E0816 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V7124E3902 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437C400621506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V712476401 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD04AUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V712431103 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V7124E4414 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2434V7124C4607 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2501C400081801 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2445C400801304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513U1BFB07CQF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513U1BFB11ATK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V712474506 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V7124X4405 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124D0716 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124B0913 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124S4412 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437C401521411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V7124Y6212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V712491502 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124C3303 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124N1115 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V712496703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124K1013 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124S2703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124P0304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124C6104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124M2112 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V7124U0314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124L0703 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2431U1ALD03DJI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124D2614 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39EFQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424U1ALB12R97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124Q4409 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424U1ALB06B93 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419V712471208 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422U1ALD82BWL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2421U1ALD53ALV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2349U1ALD23L06 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CEB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712461411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712431511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712414305 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124V1305 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29AET </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD33BIG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124W3107 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712443305 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39DXY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35BAZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712460416 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB04AJT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37CJF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37DHN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2509V701123813 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124M3615 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124C4712 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124N0809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V712472110 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124A2515 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124D6905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124S0608 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V712480216 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124G6905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124U4808 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124V1604 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124F3516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V712411102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124J3516 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124O1616 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124D4714 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2432V7124L0708 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124Q0714 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124A2316 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V7124R3202 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428V7124C0101 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2352U1ALD32BVJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38DYF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712461613 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712483507 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35DKZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38BWT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33QLA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB22CKY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422U1ALD82ABJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35BFU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29CII </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29AWE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29DIW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29AZV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712443508 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39AYT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39CGJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39DWZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD31CME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423U1ALB01I01 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124E3805 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2418U1ALD14BDB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29AQP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD31AXC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD43CAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37BFP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37BXT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2501C400643612 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2502U1BFB62PDY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2343U1ALB20N85 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V712473011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124Y0215 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424V7124B3809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V712480210 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424V712483302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7184F7712 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124M2302 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424V7124H3304 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124G2006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426V7124K0907 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124F3104 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2427V7124V3011 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2441C400392710 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712482906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124F3611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39AHL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28AUY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33RIH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33QUP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33QAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37ASQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38CPC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124Y0314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38ANH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33PLY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39BTF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37CYN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712464511 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39BYD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39DAV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124F0211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124F3208 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124C0607 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712452602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29EDY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28AKX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37DVN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124D0310 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28BTC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124P3813 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37DZW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712472906 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424U1ALB00G94 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB24DBA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CJI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39CMR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB13AJL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35CKN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37AMD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2503U1BFB66CKC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD98API </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD89BWX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2433C400243812 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD95EDI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD94BFO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD01DUD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD01AVI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD00DVP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD00DVO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424V712444809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V712420803 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2436U1BKC16CKG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424V712433510 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425V7124M2804 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437U1BKC20CHM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2437C400250806 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD01EDV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2429U1ALD98CIJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2419U1ALD29AKP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38CAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35AFU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35AZT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35CZS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37CHE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB22BZG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124U0812 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2422V7124Y2611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712421905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37CNU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37CNV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD33PTZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CZT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28DDA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD38CYQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124C2309 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712480602 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2450U1BFB36DBD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2449U1BFB28BOW </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD94DVM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD81EFR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD85BAP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD94BFT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2428U1ALD95CVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29CKP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29DWM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD29CWG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35DTI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712473009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD39BMJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124T0601 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2417U1ALD07CFQ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124T2314 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD35DWY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2424U1ALB03P55 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2420U1ALD36CNM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2349U1ALB43H64 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124Z2316 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2426U1ALD42DQV </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28AAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28ASO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28ASN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD28CIL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124F4310 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V712470915 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2423V7124Y1203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALB13AJK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2420U1ALD47AXB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2425U1ALD37AVH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2503U1BFB67DAS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513U1BFB09APO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2513U1BFB13DEN </t>
   </si>
 </sst>
 </file>
@@ -16976,10 +17831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5105"/>
+  <dimension ref="A1:A5390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5378" workbookViewId="0">
+      <selection activeCell="B5390" sqref="B5390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42511,6 +43366,1431 @@
     <row r="5105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5105" s="1" t="s">
         <v>5091</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5106" s="1" t="s">
+        <v>5095</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5107" s="1" t="s">
+        <v>5096</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5108" s="1" t="s">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5109" s="1" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5110" s="1" t="s">
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5111" s="1" t="s">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5112" s="1" t="s">
+        <v>5101</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5113" s="1" t="s">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5114" s="1" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5115" s="1" t="s">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5116" s="1" t="s">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5117" s="1" t="s">
+        <v>5106</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5118" s="1" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5119" s="1" t="s">
+        <v>5108</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5120" s="1" t="s">
+        <v>5109</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5121" s="1" t="s">
+        <v>5110</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5122" s="1" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5123" s="1" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5124" s="1" t="s">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5125" s="1" t="s">
+        <v>5114</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5126" s="1" t="s">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5127" s="1" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5128" s="1" t="s">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5129" s="1" t="s">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5130" s="1" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5131" s="1" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5132" s="1" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5133" s="1" t="s">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5134" s="1" t="s">
+        <v>5123</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5135" s="1" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5136" s="1" t="s">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5137" s="1" t="s">
+        <v>5126</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5138" s="1" t="s">
+        <v>5127</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5139" s="1" t="s">
+        <v>5128</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5140" s="1" t="s">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5141" s="1" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5142" s="1" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5143" s="1" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5144" s="1" t="s">
+        <v>5133</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5145" s="1" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5146" s="1" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5147" s="1" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5148" s="1" t="s">
+        <v>5137</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5149" s="1" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5150" s="1" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5151" s="1" t="s">
+        <v>5140</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5152" s="1" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5153" s="1" t="s">
+        <v>5142</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5154" s="1" t="s">
+        <v>5143</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5155" s="1" t="s">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5156" s="1" t="s">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="5157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5157" s="1" t="s">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5158" s="1" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5159" s="1" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5160" s="1" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5161" s="1" t="s">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5162" s="1" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5163" s="1" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5164" s="1" t="s">
+        <v>5153</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5165" s="1" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5166" s="1" t="s">
+        <v>5155</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5167" s="1" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5168" s="1" t="s">
+        <v>5157</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5169" s="1" t="s">
+        <v>5158</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5170" s="1" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5171" s="1" t="s">
+        <v>5160</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5172" s="1" t="s">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5173" s="1" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5174" s="1" t="s">
+        <v>5163</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5175" s="1" t="s">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5176" s="1" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5177" s="1" t="s">
+        <v>5166</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5178" s="1" t="s">
+        <v>5167</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5179" s="1" t="s">
+        <v>5168</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5180" s="1" t="s">
+        <v>5169</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5181" s="1" t="s">
+        <v>5170</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5182" s="1" t="s">
+        <v>5171</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5183" s="1" t="s">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5184" s="1" t="s">
+        <v>5173</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5185" s="1" t="s">
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5186" s="1" t="s">
+        <v>5175</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5187" s="1" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5188" s="1" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5189" s="1" t="s">
+        <v>5178</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5190" s="1" t="s">
+        <v>5179</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5191" s="1" t="s">
+        <v>5180</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5192" s="1" t="s">
+        <v>5181</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5193" s="1" t="s">
+        <v>5182</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5194" s="1" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5195" s="1" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5196" s="1" t="s">
+        <v>5185</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5197" s="1" t="s">
+        <v>5186</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5198" s="1" t="s">
+        <v>5187</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5199" s="1" t="s">
+        <v>5188</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5200" s="1" t="s">
+        <v>5189</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5201" s="1" t="s">
+        <v>5190</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5202" s="1" t="s">
+        <v>5191</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5203" s="1" t="s">
+        <v>5192</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5204" s="1" t="s">
+        <v>5193</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5205" s="1" t="s">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5206" s="1" t="s">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5207" s="1" t="s">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5208" s="1" t="s">
+        <v>5197</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5209" s="1" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5210" s="1" t="s">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5211" s="1" t="s">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5212" s="1" t="s">
+        <v>5201</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5213" s="1" t="s">
+        <v>5202</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5214" s="1" t="s">
+        <v>5203</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5215" s="1" t="s">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5216" s="1" t="s">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5217" s="1" t="s">
+        <v>5206</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5218" s="1" t="s">
+        <v>5207</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5219" s="1" t="s">
+        <v>5208</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5220" s="1" t="s">
+        <v>5209</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5221" s="1" t="s">
+        <v>5210</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5222" s="1" t="s">
+        <v>5211</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5223" s="1" t="s">
+        <v>5212</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5224" s="1" t="s">
+        <v>5213</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5225" s="1" t="s">
+        <v>5214</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5226" s="1" t="s">
+        <v>5215</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5227" s="1" t="s">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5228" s="1" t="s">
+        <v>5217</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5229" s="1" t="s">
+        <v>5218</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5230" s="1" t="s">
+        <v>5219</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5231" s="1" t="s">
+        <v>5220</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5232" s="1" t="s">
+        <v>5221</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5233" s="1" t="s">
+        <v>5222</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5234" s="1" t="s">
+        <v>5223</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5235" s="1" t="s">
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5236" s="1" t="s">
+        <v>5225</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5237" s="1" t="s">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5238" s="1" t="s">
+        <v>5227</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5239" s="1" t="s">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5240" s="1" t="s">
+        <v>5229</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5241" s="1" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5242" s="1" t="s">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5243" s="1" t="s">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5244" s="1" t="s">
+        <v>5233</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5245" s="1" t="s">
+        <v>5234</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5246" s="1" t="s">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5247" s="1" t="s">
+        <v>5236</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5248" s="1" t="s">
+        <v>5237</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5249" s="1" t="s">
+        <v>5238</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5250" s="1" t="s">
+        <v>5239</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5251" s="1" t="s">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5252" s="1" t="s">
+        <v>5241</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5253" s="1" t="s">
+        <v>5242</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5254" s="1" t="s">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5255" s="1" t="s">
+        <v>5244</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5256" s="1" t="s">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5257" s="1" t="s">
+        <v>5246</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5258" s="1" t="s">
+        <v>5247</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5259" s="1" t="s">
+        <v>5248</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5260" s="1" t="s">
+        <v>5249</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5261" s="1" t="s">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5262" s="1" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5263" s="1" t="s">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5264" s="1" t="s">
+        <v>5253</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5265" s="1" t="s">
+        <v>5254</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5266" s="1" t="s">
+        <v>5255</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5267" s="1" t="s">
+        <v>5256</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5268" s="1" t="s">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5269" s="1" t="s">
+        <v>5258</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5270" s="1" t="s">
+        <v>5259</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5271" s="1" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5272" s="1" t="s">
+        <v>5261</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5273" s="1" t="s">
+        <v>5262</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5274" s="1" t="s">
+        <v>5263</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5275" s="1" t="s">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5276" s="1" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5277" s="1" t="s">
+        <v>5266</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5278" s="1" t="s">
+        <v>5267</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5279" s="1" t="s">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5280" s="1" t="s">
+        <v>5269</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5281" s="1" t="s">
+        <v>5270</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5282" s="1" t="s">
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5283" s="1" t="s">
+        <v>5272</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5284" s="1" t="s">
+        <v>5273</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5285" s="1" t="s">
+        <v>5274</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5286" s="1" t="s">
+        <v>5275</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5287" s="1" t="s">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5288" s="1" t="s">
+        <v>5277</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5289" s="1" t="s">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5290" s="1" t="s">
+        <v>5279</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5291" s="1" t="s">
+        <v>5280</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5292" s="1" t="s">
+        <v>5281</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5293" s="1" t="s">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5294" s="1" t="s">
+        <v>5283</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5295" s="1" t="s">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5296" s="1" t="s">
+        <v>5285</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5297" s="1" t="s">
+        <v>5286</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5298" s="1" t="s">
+        <v>5287</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5299" s="1" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5300" s="1" t="s">
+        <v>5289</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5301" s="1" t="s">
+        <v>5290</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5302" s="1" t="s">
+        <v>5291</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5303" s="1" t="s">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5304" s="1" t="s">
+        <v>5293</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5305" s="1" t="s">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5306" s="1" t="s">
+        <v>5295</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5307" s="1" t="s">
+        <v>5296</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5308" s="1" t="s">
+        <v>5297</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5309" s="1" t="s">
+        <v>5298</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5310" s="1" t="s">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5311" s="1" t="s">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5312" s="1" t="s">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5313" s="1" t="s">
+        <v>5302</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5314" s="1" t="s">
+        <v>5303</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5315" s="1" t="s">
+        <v>5304</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5316" s="1" t="s">
+        <v>5305</v>
+      </c>
+    </row>
+    <row r="5317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5317" s="1" t="s">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5318" s="1" t="s">
+        <v>5307</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5319" s="1" t="s">
+        <v>5308</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5320" s="1" t="s">
+        <v>5309</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5321" s="1" t="s">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5322" s="1" t="s">
+        <v>5311</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5323" s="1" t="s">
+        <v>5312</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5324" s="1" t="s">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5325" s="1" t="s">
+        <v>5314</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5326" s="1" t="s">
+        <v>5315</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5327" s="1" t="s">
+        <v>5316</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5328" s="1" t="s">
+        <v>5317</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5329" s="1" t="s">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5330" s="1" t="s">
+        <v>5319</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5331" s="1" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5332" s="1" t="s">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5333" s="1" t="s">
+        <v>5322</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5334" s="1" t="s">
+        <v>5323</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5335" s="1" t="s">
+        <v>5324</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5336" s="1" t="s">
+        <v>5325</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5337" s="1" t="s">
+        <v>5326</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5338" s="1" t="s">
+        <v>5327</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5339" s="1" t="s">
+        <v>5328</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5340" s="1" t="s">
+        <v>5329</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5341" s="1" t="s">
+        <v>5330</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5342" s="1" t="s">
+        <v>5331</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5343" s="1" t="s">
+        <v>5332</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5344" s="1" t="s">
+        <v>5333</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5345" s="1" t="s">
+        <v>5334</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5346" s="1" t="s">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5347" s="1" t="s">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5348" s="1" t="s">
+        <v>5337</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5349" s="1" t="s">
+        <v>5338</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5350" s="1" t="s">
+        <v>5339</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5351" s="1" t="s">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5352" s="1" t="s">
+        <v>5341</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5353" s="1" t="s">
+        <v>5342</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5354" s="1" t="s">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5355" s="1" t="s">
+        <v>5344</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5356" s="1" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5357" s="1" t="s">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5358" s="1" t="s">
+        <v>5347</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5359" s="1" t="s">
+        <v>5348</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5360" s="1" t="s">
+        <v>5349</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5361" s="1" t="s">
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5362" s="1" t="s">
+        <v>5351</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5363" s="1" t="s">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5364" s="1" t="s">
+        <v>5353</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5365" s="1" t="s">
+        <v>5354</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5366" s="1" t="s">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5367" s="1" t="s">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5368" s="1" t="s">
+        <v>5357</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5369" s="1" t="s">
+        <v>5358</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5370" s="1" t="s">
+        <v>5359</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5371" s="1" t="s">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5372" s="1" t="s">
+        <v>5361</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5373" s="1" t="s">
+        <v>5362</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5374" s="1" t="s">
+        <v>5363</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5375" s="1" t="s">
+        <v>5364</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5376" s="1" t="s">
+        <v>5365</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5377" s="1" t="s">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5378" s="1" t="s">
+        <v>5367</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5379" s="1" t="s">
+        <v>5368</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5380" s="1" t="s">
+        <v>5369</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5381" s="1" t="s">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5382" s="1" t="s">
+        <v>5371</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5383" s="1" t="s">
+        <v>5372</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5384" s="1" t="s">
+        <v>5373</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5385" s="1" t="s">
+        <v>5374</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5386" s="1" t="s">
+        <v>5375</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5387" s="1" t="s">
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5388" s="1" t="s">
+        <v>5377</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5389" s="1" t="s">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5390" s="1" t="s">
+        <v>5379</v>
       </c>
     </row>
   </sheetData>
